--- a/public/data/Historical Performance Trend Report (1).xlsx
+++ b/public/data/Historical Performance Trend Report (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karthik\Files\Proposals\Fresenius\Report Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Task\MS_Report\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0AA1EF21-03D4-4205-A2CE-8B2A02805CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BE9163-EB5F-4073-8AA0-C4B334506057}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF694C97-2797-4F20-88C3-EFA642082AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A6515457-20F0-46B2-90B3-3AEE099DAB8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A6515457-20F0-46B2-90B3-3AEE099DAB8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Design" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Historical Performance Trend Report</t>
-  </si>
-  <si>
-    <t>Run By: Admin</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Period Type</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Q12025 - Q22025</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Product</t>
   </si>
@@ -102,15 +78,6 @@
   </si>
   <si>
     <t>Aminosteril N-Hepa 8%</t>
-  </si>
-  <si>
-    <t>Page 1 of 1</t>
-  </si>
-  <si>
-    <t>Confidential Information of Fresenius Kabi.  Do not copy or distribute.</t>
-  </si>
-  <si>
-    <t>Run Date: Jul 07, 2025</t>
   </si>
 </sst>
 </file>
@@ -120,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +102,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <i/>
@@ -225,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,9 +206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -257,20 +215,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,70 +251,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1095804</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Fresenius Kabi">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDDE3D5-13E0-4AA4-8B99-5DBC6AD86142}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="32911" b="31646"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="635000" y="0"/>
-          <a:ext cx="1070404" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,277 +570,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E484CA50-31EB-4614-BE0B-EE08924FCEAD}">
-  <dimension ref="B1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" customHeight="1">
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8">
+        <f>C2*1073</f>
+        <v>53650</v>
+      </c>
+      <c r="E2" s="5">
+        <f>2%*$D$2</f>
+        <v>1073</v>
+      </c>
+      <c r="F2" s="5">
+        <f>3%*$D$2</f>
+        <v>1609.5</v>
+      </c>
+      <c r="G2" s="5">
+        <f>1%*$D$2</f>
+        <v>536.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>800</v>
+      </c>
+      <c r="I2" s="8">
+        <f>D2-E2-F2-G2-H2</f>
+        <v>49631</v>
+      </c>
+      <c r="J2" s="10">
+        <f>I2-I3</f>
+        <v>-12384.199999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3*1072</f>
+        <v>69680</v>
+      </c>
+      <c r="E3" s="5">
+        <f>2%*$D$3</f>
+        <v>1393.6000000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <f>3%*$D$3</f>
+        <v>2090.4</v>
+      </c>
+      <c r="G3" s="5">
+        <f>3%*$D$3</f>
+        <v>2090.4</v>
+      </c>
+      <c r="H3" s="5">
+        <f>3%*$D$3</f>
+        <v>2090.4</v>
+      </c>
+      <c r="I3" s="8">
+        <f>D3-E3-F3-G3-H3</f>
+        <v>62015.199999999997</v>
+      </c>
+      <c r="J3" s="11"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <f>C4*225</f>
+        <v>4950</v>
+      </c>
+      <c r="E4" s="5">
+        <f>2%*$D$4</f>
+        <v>99</v>
+      </c>
+      <c r="F4" s="5">
+        <f>3%*$D$4</f>
+        <v>148.5</v>
+      </c>
+      <c r="G4" s="5">
+        <f>3%*$D$4</f>
+        <v>148.5</v>
+      </c>
+      <c r="H4" s="5">
+        <f>3%*$D$4</f>
+        <v>148.5</v>
+      </c>
+      <c r="I4" s="8">
+        <f>D4-E4-F4-G4-H4</f>
+        <v>4405.5</v>
+      </c>
+      <c r="J4" s="12">
+        <f>I4-I5</f>
+        <v>1805.1599999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <f>C5*222</f>
+        <v>3108</v>
+      </c>
+      <c r="E5" s="5">
+        <f>2%*$D$5</f>
+        <v>62.160000000000004</v>
+      </c>
+      <c r="F5" s="5">
+        <f>3%*$D$4</f>
+        <v>148.5</v>
+      </c>
+      <c r="G5" s="5">
+        <f>3%*$D$4</f>
+        <v>148.5</v>
+      </c>
+      <c r="H5" s="5">
+        <f>3%*$D$4</f>
+        <v>148.5</v>
+      </c>
+      <c r="I5" s="8">
+        <f>D5-E5-F5-G5-H5</f>
+        <v>2600.34</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" s="4" customFormat="1">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="4" customFormat="1">
-      <c r="B9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6">
-        <v>50</v>
-      </c>
-      <c r="E9" s="9">
-        <f>D9*1073</f>
-        <v>53650</v>
-      </c>
-      <c r="F9" s="5">
-        <f>2%*$E$9</f>
-        <v>1073</v>
-      </c>
-      <c r="G9" s="5">
-        <f>3%*$E$9</f>
-        <v>1609.5</v>
-      </c>
-      <c r="H9" s="5">
-        <f>1%*$E$9</f>
-        <v>536.5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>800</v>
-      </c>
-      <c r="J9" s="9">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>49631</v>
-      </c>
-      <c r="K9" s="11">
-        <f>J9-J10</f>
-        <v>-12384.199999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="4" customFormat="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6">
-        <v>65</v>
-      </c>
-      <c r="E10" s="10">
-        <f>D10*1072</f>
-        <v>69680</v>
-      </c>
-      <c r="F10" s="5">
-        <f>2%*$E$10</f>
-        <v>1393.6000000000001</v>
-      </c>
-      <c r="G10" s="5">
-        <f>3%*$E$10</f>
-        <v>2090.4</v>
-      </c>
-      <c r="H10" s="5">
-        <f>3%*$E$10</f>
-        <v>2090.4</v>
-      </c>
-      <c r="I10" s="5">
-        <f>3%*$E$10</f>
-        <v>2090.4</v>
-      </c>
-      <c r="J10" s="9">
-        <f>E10-F10-G10-H10-I10</f>
-        <v>62015.199999999997</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9">
-        <f>D11*225</f>
-        <v>4950</v>
-      </c>
-      <c r="F11" s="5">
-        <f>2%*$E$11</f>
-        <v>99</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" ref="G11:I12" si="0">3%*$E$11</f>
-        <v>148.5</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>148.5</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>148.5</v>
-      </c>
-      <c r="J11" s="9">
-        <f>E11-F11-G11-H11-I11</f>
-        <v>4405.5</v>
-      </c>
-      <c r="K11" s="13">
-        <f>J11-J12</f>
-        <v>1805.1599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="18"/>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9">
-        <f>D12*222</f>
-        <v>3108</v>
-      </c>
-      <c r="F12" s="5">
-        <f>2%*$E$12</f>
-        <v>62.160000000000004</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="0"/>
-        <v>148.5</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>148.5</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>148.5</v>
-      </c>
-      <c r="J12" s="9">
-        <f>E12-F12-G12-H12-I12</f>
-        <v>2600.34</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="K14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="5">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>